--- a/gui-gai-train2.xlsx
+++ b/gui-gai-train2.xlsx
@@ -3993,7 +3993,7 @@
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307:L356"/>
+      <selection activeCell="M288" sqref="M$1:N$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
